--- a/WebTablesData1.xlsx
+++ b/WebTablesData1.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sidras\IdeaProjects\ZavrsniProjekatITBootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1C3CF3-5120-47C0-A921-0A2AB8542A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4961113A-FAB5-4113-8141-E056DC0EC10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="14290" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Project" sheetId="4" r:id="rId2"/>
-    <sheet name="Add Three Records" sheetId="5" r:id="rId3"/>
-    <sheet name="LoginData" sheetId="2" r:id="rId4"/>
-    <sheet name="Domaci_Excel" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>First Name</t>
   </si>
@@ -83,36 +80,6 @@
   </si>
   <si>
     <t>Customer service</t>
-  </si>
-  <si>
-    <t>Valid username</t>
-  </si>
-  <si>
-    <t>Valid password</t>
-  </si>
-  <si>
-    <t>Invalid username</t>
-  </si>
-  <si>
-    <t>Invalid password</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>Password123</t>
-  </si>
-  <si>
-    <t>non-student</t>
-  </si>
-  <si>
-    <t>pasword123</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!</t>
-  </si>
-  <si>
-    <t>tomsmith</t>
   </si>
   <si>
     <t>FirstName1</t>
@@ -205,18 +172,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,11 +193,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -520,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,13 +626,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -686,13 +646,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -706,13 +666,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -726,13 +686,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -746,13 +706,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -766,13 +726,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -786,13 +746,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -806,13 +766,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -826,13 +786,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -846,13 +806,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -872,114 +832,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBA2F7B-C326-4CFC-A152-A715395832CB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D9113B-1395-4432-9D25-DAD317B32FD0}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63E96C2-4B12-4095-80BB-DB537C520671}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>